--- a/documents/ALP_blast.xlsx
+++ b/documents/ALP_blast.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александр\Desktop\Новая папка\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VL\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27429AC0-B322-498A-81FC-1334C6557EC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="ALP neighbors" sheetId="3" r:id="rId1"/>
@@ -1915,7 +1914,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="16">
     <font>
       <sz val="11"/>
@@ -2311,24 +2310,24 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Accent 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Accent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Accent 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Bad" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Error" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Footnote" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Good" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Heading" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Heading 1" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Heading 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Hyperlink" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Neutral" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Note" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Result" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Status" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Text" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Warning" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent" xfId="1"/>
+    <cellStyle name="Accent 1" xfId="2"/>
+    <cellStyle name="Accent 2" xfId="3"/>
+    <cellStyle name="Accent 3" xfId="4"/>
+    <cellStyle name="Bad" xfId="5"/>
+    <cellStyle name="Error" xfId="6"/>
+    <cellStyle name="Footnote" xfId="7"/>
+    <cellStyle name="Good" xfId="8"/>
+    <cellStyle name="Heading" xfId="9"/>
+    <cellStyle name="Heading 1" xfId="10"/>
+    <cellStyle name="Heading 2" xfId="11"/>
+    <cellStyle name="Hyperlink" xfId="12"/>
+    <cellStyle name="Neutral" xfId="13"/>
+    <cellStyle name="Note" xfId="14"/>
+    <cellStyle name="Result" xfId="15"/>
+    <cellStyle name="Status" xfId="16"/>
+    <cellStyle name="Text" xfId="17"/>
+    <cellStyle name="Warning" xfId="18"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="7">
@@ -2403,22 +2402,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:K139" totalsRowShown="0">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K139">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:K139" totalsRowShown="0">
+  <sortState ref="A2:K139">
     <sortCondition ref="K24"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="i"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="strain"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="seqnames"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="start"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="end"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="gene_id"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="transcript_id"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="product"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="protein_id"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="gene"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="branch"/>
+    <tableColumn id="1" name="i"/>
+    <tableColumn id="2" name="strain"/>
+    <tableColumn id="3" name="seqnames"/>
+    <tableColumn id="4" name="start"/>
+    <tableColumn id="5" name="end"/>
+    <tableColumn id="6" name="gene_id"/>
+    <tableColumn id="7" name="transcript_id"/>
+    <tableColumn id="8" name="product"/>
+    <tableColumn id="9" name="protein_id"/>
+    <tableColumn id="10" name="gene"/>
+    <tableColumn id="11" name="branch"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2720,19 +2719,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1">
+    <row r="1" spans="1:21" ht="14.4" thickBot="1">
       <c r="A1" t="s">
         <v>549</v>
       </c>
@@ -2797,7 +2796,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" thickBot="1">
+    <row r="2" spans="1:21" ht="14.4" thickBot="1">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -2862,7 +2861,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" thickBot="1">
+    <row r="3" spans="1:21" ht="14.4" thickBot="1">
       <c r="A3" s="8" t="s">
         <v>36</v>
       </c>
@@ -2927,7 +2926,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" thickBot="1">
+    <row r="4" spans="1:21" ht="14.4" thickBot="1">
       <c r="A4" s="8" t="s">
         <v>57</v>
       </c>
@@ -2992,7 +2991,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" thickBot="1">
+    <row r="5" spans="1:21" ht="14.4" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>71</v>
       </c>
@@ -3057,7 +3056,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" thickBot="1">
+    <row r="6" spans="1:21" ht="14.4" thickBot="1">
       <c r="A6" s="8" t="s">
         <v>102</v>
       </c>
@@ -3122,7 +3121,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" thickBot="1">
+    <row r="7" spans="1:21" ht="14.4" thickBot="1">
       <c r="A7" s="8" t="s">
         <v>123</v>
       </c>
@@ -3187,7 +3186,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" thickBot="1">
+    <row r="8" spans="1:21" ht="14.4" thickBot="1">
       <c r="A8" s="8" t="s">
         <v>140</v>
       </c>
@@ -3252,7 +3251,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" thickBot="1">
+    <row r="9" spans="1:21" ht="14.4" thickBot="1">
       <c r="A9" s="8" t="s">
         <v>153</v>
       </c>
@@ -3317,7 +3316,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" thickBot="1">
+    <row r="10" spans="1:21" ht="14.4" thickBot="1">
       <c r="A10" s="8" t="s">
         <v>170</v>
       </c>
@@ -3382,7 +3381,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" thickBot="1">
+    <row r="11" spans="1:21" ht="14.4" thickBot="1">
       <c r="A11" s="8" t="s">
         <v>184</v>
       </c>
@@ -3447,7 +3446,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" thickBot="1">
+    <row r="12" spans="1:21" ht="14.4" thickBot="1">
       <c r="A12" s="8" t="s">
         <v>193</v>
       </c>
@@ -3512,7 +3511,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" thickBot="1">
+    <row r="13" spans="1:21" ht="14.4" thickBot="1">
       <c r="A13" s="8" t="s">
         <v>193</v>
       </c>
@@ -3577,7 +3576,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" thickBot="1">
+    <row r="14" spans="1:21" ht="14.4" thickBot="1">
       <c r="A14" s="8" t="s">
         <v>214</v>
       </c>
@@ -3642,7 +3641,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" thickBot="1">
+    <row r="15" spans="1:21" ht="14.4" thickBot="1">
       <c r="A15" s="8" t="s">
         <v>225</v>
       </c>
@@ -3772,7 +3771,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15" thickBot="1">
+    <row r="17" spans="1:21" ht="14.4" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>626</v>
       </c>
@@ -3837,7 +3836,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15" thickBot="1">
+    <row r="18" spans="1:21" ht="14.4" thickBot="1">
       <c r="A18" s="8" t="s">
         <v>261</v>
       </c>
@@ -3902,7 +3901,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15" thickBot="1">
+    <row r="19" spans="1:21" ht="14.4" thickBot="1">
       <c r="A19" s="8" t="s">
         <v>272</v>
       </c>
@@ -3967,7 +3966,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15" thickBot="1">
+    <row r="20" spans="1:21" ht="14.4" thickBot="1">
       <c r="A20" s="8" t="s">
         <v>285</v>
       </c>
@@ -4097,7 +4096,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15" thickBot="1">
+    <row r="22" spans="1:21" ht="14.4" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>306</v>
       </c>
@@ -4227,7 +4226,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15" thickBot="1">
+    <row r="24" spans="1:21" ht="14.4" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>329</v>
       </c>
@@ -4292,7 +4291,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15" thickBot="1">
+    <row r="25" spans="1:21" ht="14.4" thickBot="1">
       <c r="A25" s="8" t="s">
         <v>346</v>
       </c>
@@ -4357,7 +4356,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15" thickBot="1">
+    <row r="26" spans="1:21" ht="14.4" thickBot="1">
       <c r="A26" s="8" t="s">
         <v>359</v>
       </c>
@@ -4422,7 +4421,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15" thickBot="1">
+    <row r="27" spans="1:21" ht="14.4" thickBot="1">
       <c r="A27" s="8" t="s">
         <v>369</v>
       </c>
@@ -4487,7 +4486,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15" thickBot="1">
+    <row r="28" spans="1:21" ht="14.4" thickBot="1">
       <c r="A28" s="8" t="s">
         <v>378</v>
       </c>
@@ -4552,7 +4551,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15" thickBot="1">
+    <row r="29" spans="1:21" ht="14.4" thickBot="1">
       <c r="A29" s="8" t="s">
         <v>394</v>
       </c>
@@ -4617,7 +4616,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15" thickBot="1">
+    <row r="30" spans="1:21" ht="14.4" thickBot="1">
       <c r="A30" s="8" t="s">
         <v>411</v>
       </c>
@@ -4682,7 +4681,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15" thickBot="1">
+    <row r="31" spans="1:21" ht="14.4" thickBot="1">
       <c r="A31" s="8" t="s">
         <v>429</v>
       </c>
@@ -4747,7 +4746,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15" thickBot="1">
+    <row r="32" spans="1:21" ht="14.4" thickBot="1">
       <c r="A32" s="8" t="s">
         <v>444</v>
       </c>
@@ -4812,7 +4811,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15" thickBot="1">
+    <row r="33" spans="1:21" ht="14.4" thickBot="1">
       <c r="A33" s="8" t="s">
         <v>457</v>
       </c>
@@ -4877,7 +4876,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15" thickBot="1">
+    <row r="34" spans="1:21" ht="14.4" thickBot="1">
       <c r="A34" s="8" t="s">
         <v>477</v>
       </c>
@@ -4942,7 +4941,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15" thickBot="1">
+    <row r="35" spans="1:21" ht="14.4" thickBot="1">
       <c r="A35" s="8" t="s">
         <v>496</v>
       </c>
@@ -5007,7 +5006,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15" thickBot="1">
+    <row r="36" spans="1:21" ht="14.4" thickBot="1">
       <c r="A36" s="8" t="s">
         <v>509</v>
       </c>
@@ -5138,7 +5137,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U37">
+  <sortState ref="A2:U37">
     <sortCondition ref="A1"/>
   </sortState>
   <conditionalFormatting sqref="A1:U36">
@@ -5171,29 +5170,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N139"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="D29" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="52.125" customWidth="1"/>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="5" width="7.75" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
-    <col min="7" max="7" width="22.25" customWidth="1"/>
-    <col min="8" max="8" width="29.375" customWidth="1"/>
-    <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="2" max="2" width="52.09765625" customWidth="1"/>
+    <col min="3" max="3" width="49.3984375" customWidth="1"/>
+    <col min="4" max="5" width="7.69921875" customWidth="1"/>
+    <col min="6" max="6" width="17.8984375" customWidth="1"/>
+    <col min="7" max="7" width="22.19921875" customWidth="1"/>
+    <col min="8" max="8" width="29.3984375" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" customWidth="1"/>
     <col min="10" max="10" width="5" customWidth="1"/>
-    <col min="11" max="11" width="10.625" customWidth="1"/>
-    <col min="14" max="14" width="21.125" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" customWidth="1"/>
+    <col min="14" max="14" width="21.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1">
+    <row r="1" spans="1:14" ht="14.4" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5271,7 +5270,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15">
+    <row r="3" spans="1:14" ht="14.4">
       <c r="A3" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -5311,7 +5310,7 @@
       </c>
       <c r="N3" s="22"/>
     </row>
-    <row r="4" spans="1:14" ht="15">
+    <row r="4" spans="1:14" ht="14.4">
       <c r="A4" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -5351,7 +5350,7 @@
       </c>
       <c r="N4" s="22"/>
     </row>
-    <row r="5" spans="1:14" ht="15">
+    <row r="5" spans="1:14" ht="14.4">
       <c r="A5" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -5391,7 +5390,7 @@
       </c>
       <c r="N5" s="22"/>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1">
+    <row r="6" spans="1:14" ht="14.4" thickBot="1">
       <c r="A6" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -5583,7 +5582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1">
+    <row r="11" spans="1:14" ht="14.4" thickBot="1">
       <c r="A11" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -5727,7 +5726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+    <row r="15" spans="1:14" ht="14.4" thickBot="1">
       <c r="A15" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -5907,7 +5906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1">
+    <row r="20" spans="1:11" ht="14.4" thickBot="1">
       <c r="A20" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -6051,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1">
+    <row r="24" spans="1:11" ht="14.4" thickBot="1">
       <c r="A24" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -6231,7 +6230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15" thickBot="1">
+    <row r="29" spans="1:11" ht="14.4" thickBot="1">
       <c r="A29" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -6375,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1">
+    <row r="33" spans="1:11" ht="14.4" thickBot="1">
       <c r="A33" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -6519,7 +6518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15" thickBot="1">
+    <row r="37" spans="1:11" ht="14.4" thickBot="1">
       <c r="A37" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
@@ -6663,7 +6662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15" thickBot="1">
+    <row r="41" spans="1:11" ht="14.4" thickBot="1">
       <c r="A41" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
@@ -6807,7 +6806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15" thickBot="1">
+    <row r="45" spans="1:11" ht="14.4" thickBot="1">
       <c r="A45" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
@@ -6879,7 +6878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15" thickBot="1">
+    <row r="47" spans="1:11" ht="14.4" thickBot="1">
       <c r="A47" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
@@ -7059,7 +7058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15" thickBot="1">
+    <row r="52" spans="1:11" ht="14.4" thickBot="1">
       <c r="A52" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
@@ -7167,7 +7166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15" thickBot="1">
+    <row r="55" spans="1:11" ht="14.4" thickBot="1">
       <c r="A55" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
@@ -7275,7 +7274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15" thickBot="1">
+    <row r="58" spans="1:11" ht="14.4" thickBot="1">
       <c r="A58" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
@@ -7383,7 +7382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15" thickBot="1">
+    <row r="61" spans="1:11" ht="14.4" thickBot="1">
       <c r="A61" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
@@ -7491,7 +7490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15" thickBot="1">
+    <row r="64" spans="1:11" ht="14.4" thickBot="1">
       <c r="A64" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
@@ -7599,7 +7598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15" thickBot="1">
+    <row r="67" spans="1:11" ht="14.4" thickBot="1">
       <c r="A67" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -7707,7 +7706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15" thickBot="1">
+    <row r="70" spans="1:11" ht="14.4" thickBot="1">
       <c r="A70" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -7815,7 +7814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" thickBot="1">
+    <row r="73" spans="1:11" ht="14.4" thickBot="1">
       <c r="A73" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -7923,7 +7922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="15" thickBot="1">
+    <row r="76" spans="1:11" ht="14.4" thickBot="1">
       <c r="A76" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -8031,7 +8030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="15" thickBot="1">
+    <row r="79" spans="1:11" ht="14.4" thickBot="1">
       <c r="A79" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -8139,7 +8138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15" thickBot="1">
+    <row r="82" spans="1:11" ht="14.4" thickBot="1">
       <c r="A82" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -8283,7 +8282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="15" thickBot="1">
+    <row r="86" spans="1:11" ht="14.4" thickBot="1">
       <c r="A86" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -8391,7 +8390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="15" thickBot="1">
+    <row r="89" spans="1:11" ht="14.4" thickBot="1">
       <c r="A89" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -8499,7 +8498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" thickBot="1">
+    <row r="92" spans="1:11" ht="14.4" thickBot="1">
       <c r="A92" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -8607,7 +8606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="15" thickBot="1">
+    <row r="95" spans="1:11" ht="14.4" thickBot="1">
       <c r="A95" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -8786,7 +8785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="15" thickBot="1">
+    <row r="100" spans="1:11" ht="14.4" thickBot="1">
       <c r="A100" s="13">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -8930,7 +8929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="15" thickBot="1">
+    <row r="104" spans="1:11" ht="14.4" thickBot="1">
       <c r="A104" s="13">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -9110,7 +9109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="15" thickBot="1">
+    <row r="109" spans="1:11" ht="14.4" thickBot="1">
       <c r="A109" s="13">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -9254,7 +9253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="15" thickBot="1">
+    <row r="113" spans="1:11" ht="14.4" thickBot="1">
       <c r="A113" s="13">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -9398,7 +9397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="15" thickBot="1">
+    <row r="117" spans="1:11" ht="14.4" thickBot="1">
       <c r="A117" s="13">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -9578,7 +9577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="15" thickBot="1">
+    <row r="122" spans="1:11" ht="14.4" thickBot="1">
       <c r="A122" s="13">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -9758,7 +9757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="15" thickBot="1">
+    <row r="127" spans="1:11" ht="14.4" thickBot="1">
       <c r="A127" s="13">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -9866,7 +9865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="15" thickBot="1">
+    <row r="130" spans="1:11" ht="14.4" thickBot="1">
       <c r="A130" s="13">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -10046,7 +10045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="15" thickBot="1">
+    <row r="135" spans="1:11" ht="14.4" thickBot="1">
       <c r="A135" s="13">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -10190,7 +10189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="15" thickBot="1">
+    <row r="139" spans="1:11" ht="14.4" thickBot="1">
       <c r="A139" s="13">
         <f t="shared" si="3"/>
         <v>44</v>
